--- a/DataModel.xlsx
+++ b/DataModel.xlsx
@@ -55,21 +55,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="0" shapeId="0">
+    <comment ref="N2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Nikon D3300, Nikkor 50mm 1.8G</t>
+          <t>Camera, Audio Recorder, Microphone, Lens</t>
         </r>
       </text>
     </comment>
-    <comment ref="F6" authorId="0" shapeId="0">
+    <comment ref="F5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -83,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F8" authorId="0" shapeId="0">
+    <comment ref="F7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -132,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="49">
   <si>
     <t>Scene</t>
   </si>
@@ -158,9 +157,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Path</t>
-  </si>
-  <si>
     <t>MediaKey</t>
   </si>
   <si>
@@ -203,12 +199,6 @@
     <t>Version</t>
   </si>
   <si>
-    <t>MediaVersion</t>
-  </si>
-  <si>
-    <t>VersionKey</t>
-  </si>
-  <si>
     <t>ContentType</t>
   </si>
   <si>
@@ -227,9 +217,6 @@
     <t>SceneLicense</t>
   </si>
   <si>
-    <t>MediaLicense</t>
-  </si>
-  <si>
     <t>SceneShot</t>
   </si>
   <si>
@@ -237,6 +224,60 @@
   </si>
   <si>
     <t>ShotMedia</t>
+  </si>
+  <si>
+    <t>Focal Length</t>
+  </si>
+  <si>
+    <t>DeviceTypeKey</t>
+  </si>
+  <si>
+    <t>DeviceType</t>
+  </si>
+  <si>
+    <t>CropFactor</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Aperature</t>
+  </si>
+  <si>
+    <t>ShotLicense</t>
+  </si>
+  <si>
+    <t>LicenseKey</t>
+  </si>
+  <si>
+    <t>MediaDevice</t>
+  </si>
+  <si>
+    <t>DeviceKey</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>Deleted</t>
+  </si>
+  <si>
+    <t>DateAdded</t>
+  </si>
+  <si>
+    <t>DateTaken</t>
+  </si>
+  <si>
+    <t>LastUpdated</t>
+  </si>
+  <si>
+    <t>Published</t>
+  </si>
+  <si>
+    <t>DatePublished</t>
+  </si>
+  <si>
+    <t>FilePath</t>
   </si>
 </sst>
 </file>
@@ -579,7 +620,7 @@
   <dimension ref="B2:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -589,9 +630,10 @@
     <col min="4" max="4" width="11.5546875" customWidth="1"/>
     <col min="5" max="5" width="14.88671875" customWidth="1"/>
     <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.44140625" customWidth="1"/>
     <col min="10" max="10" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.21875" customWidth="1"/>
     <col min="14" max="14" width="12.21875" customWidth="1"/>
   </cols>
@@ -601,17 +643,23 @@
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="L2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
@@ -627,6 +675,12 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -646,153 +700,230 @@
       <c r="J4" t="s">
         <v>7</v>
       </c>
+      <c r="L4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>3</v>
       </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
       <c r="F5" t="s">
         <v>12</v>
       </c>
       <c r="H5" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="F11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="F12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="J15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="N15" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D16" t="s">
         <v>1</v>
       </c>
+      <c r="F16" t="s">
+        <v>1</v>
+      </c>
       <c r="H16" t="s">
         <v>1</v>
       </c>
       <c r="J16" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L16" t="s">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
       </c>
+      <c r="F17" t="s">
+        <v>8</v>
+      </c>
       <c r="H17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17" t="s">
+        <v>13</v>
+      </c>
+      <c r="N17" t="s">
         <v>29</v>
       </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="F18" t="s">
+        <v>40</v>
+      </c>
       <c r="J18" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18" t="s">
+        <v>38</v>
+      </c>
+      <c r="N18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="F19" t="s">
+        <v>41</v>
+      </c>
+      <c r="J19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="J19" t="s">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="J20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="J20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="J24" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="J25" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="J26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
